--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxu02\OneDrive\Desktop\leet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27CCFE5-55B8-462E-9186-1C1D6B04C443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E393C5D7-0236-4918-9F53-7C4D4D041FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7020" yWindow="6072" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t xml:space="preserve">Type </t>
   </si>
@@ -51,10 +51,49 @@
     <t>100. Same Tree</t>
   </si>
   <si>
-    <t>Recursion</t>
-  </si>
-  <si>
     <t>Do a tree traversal to see if the node are the same at the same time</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>101.isSymmetricTree</t>
+  </si>
+  <si>
+    <t>Recursion,DFS</t>
+  </si>
+  <si>
+    <t>104.maxdepth</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>111.mindepth</t>
+  </si>
+  <si>
+    <t>do a postorder traversal</t>
+  </si>
+  <si>
+    <t>112.haspathsum</t>
+  </si>
+  <si>
+    <t>preorder,Traverse left branch and add values from top to bottom, then right tree until find a match</t>
+  </si>
+  <si>
+    <t>preorder,Traverse left then right, and return the min depth from each side</t>
+  </si>
+  <si>
+    <t>113.haspathsum</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>preorder, use a list() for deep copy current path</t>
   </si>
 </sst>
 </file>
@@ -372,19 +411,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="4" max="5" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="5" max="6" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -395,10 +436,13 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -408,8 +452,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -417,10 +464,95 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
